--- a/src/main/java/com/spring/javagreenS_khv/dao/(SPRING)스키마설계_물류정보시스템_김흰별.xlsx
+++ b/src/main/java/com/spring/javagreenS_khv/dao/(SPRING)스키마설계_물류정보시스템_김흰별.xlsx
@@ -10,14 +10,14 @@
     <sheet name="물류시스템 스키마 설계" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'물류시스템 스키마 설계'!$A$1:$J$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'물류시스템 스키마 설계'!$A$1:$J$167</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="228">
   <si>
     <t>EMAIL</t>
   </si>
@@ -58,9 +58,6 @@
     <t>CUSTOM_KIND_NM</t>
   </si>
   <si>
-    <t>PWD</t>
-  </si>
-  <si>
     <t>물류시스템 스키마 설계</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -135,9 +132,6 @@
   </si>
   <si>
     <t>F_DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT(8) AI </t>
   </si>
   <si>
     <t xml:space="preserve">INT(8) PK </t>
@@ -529,9 +523,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">VEHICLE_NO </t>
-  </si>
-  <si>
     <t>VEHICLE_KIND_NM</t>
   </si>
   <si>
@@ -624,9 +615,6 @@
     <t xml:space="preserve">VARCHAR(300) </t>
   </si>
   <si>
-    <t xml:space="preserve">INT(15) AI </t>
-  </si>
-  <si>
     <t>VARCHAR(10)</t>
   </si>
   <si>
@@ -785,10 +773,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">INT(8) AI </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VEHICLE_KIND_CD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -830,10 +814,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ID </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>스키마명</t>
     </r>
@@ -954,6 +934,526 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스키마명</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : QRCODE (QR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스키마명</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : KAKAOADDRESS (MAP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기업고객주소테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIN_ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUSTOM_NM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QRCODE </t>
+  </si>
+  <si>
+    <t>INT(11)</t>
+  </si>
+  <si>
+    <t>INT(11) PK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAPADDRESS</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOUBLE </t>
+  </si>
+  <si>
+    <t>INT(8) PK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스키마명</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : CUSTOM_COMP_HISTORY (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기업고객정보관리통계용테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스키마명</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : CUSTOM_PERSONAL_HISTORY (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인고객정보관리통계용테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOM_KIND_CD</t>
+  </si>
+  <si>
+    <t>CUSTOM_GRADE</t>
+  </si>
+  <si>
+    <t>DELETE_OVER_FLG</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR(1) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스키마명</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : FLG_SUMMARY (기타FLAG테이블)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLG_CD</t>
+  </si>
+  <si>
+    <t>FLG_NM</t>
+  </si>
+  <si>
+    <t>MENU_CD</t>
+  </si>
+  <si>
+    <t>MENU_NM</t>
+  </si>
+  <si>
+    <t>SUB_MENU_CD</t>
+  </si>
+  <si>
+    <t>SUB_MENU_NM</t>
+  </si>
+  <si>
+    <t>DEL_FLAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR(50) </t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t>MEMBERID</t>
+  </si>
+  <si>
+    <t>MEMBERNAME</t>
+  </si>
+  <si>
+    <t>JUMINNO</t>
+  </si>
+  <si>
+    <t>BIRTHDAY</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>POSTCODE</t>
+  </si>
+  <si>
+    <t>ROADADDR</t>
+  </si>
+  <si>
+    <t>EXTRAADDR</t>
+  </si>
+  <si>
+    <t>DETAILADDR</t>
+  </si>
+  <si>
+    <t>CONTENT</t>
+  </si>
+  <si>
+    <t>PHOTO</t>
+  </si>
+  <si>
+    <t>HIREDATE</t>
+  </si>
+  <si>
+    <t>RESIGNDATE</t>
+  </si>
+  <si>
+    <t>CREATEDATE</t>
+  </si>
+  <si>
+    <t>CREATEUSER</t>
+  </si>
+  <si>
+    <t>UPDATEDATE</t>
+  </si>
+  <si>
+    <t>UPDATEUSER</t>
+  </si>
+  <si>
+    <t>DELETEDATE</t>
+  </si>
+  <si>
+    <t>DELETEUSER</t>
+  </si>
+  <si>
+    <r>
+      <t>스키마명</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : ADMIN (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(5)</t>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스키마명</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : ADMINLOGIN  (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자로그인테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGINID</t>
+  </si>
+  <si>
+    <t>LOGINPWD</t>
+  </si>
+  <si>
+    <t>LOGINDATE</t>
+  </si>
+  <si>
+    <t>LOGINUSER</t>
+  </si>
+  <si>
+    <t>LOGOUTDATE</t>
+  </si>
+  <si>
+    <t>LOGOUTUSER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDX </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <r>
+      <t>스키마명</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> :  ADMINLEVEL  (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자레벨테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVELNAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT(15) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">INT(8) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">INT(15) PK </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(3) PK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(3) FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1) FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(8) FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">STD_UNIT_CD </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(3) FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WH_MNG_CD </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">VEHICLE_NO </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10) FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30) FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_PWD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -961,7 +1461,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,6 +1551,36 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1090,8 +1620,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,19 +1705,232 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="10">
+    <cellStyle name="S10" xfId="4"/>
+    <cellStyle name="S11" xfId="5"/>
+    <cellStyle name="S12" xfId="6"/>
+    <cellStyle name="S8" xfId="2"/>
+    <cellStyle name="S9" xfId="3"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="7"/>
+    <cellStyle name="표준 3" xfId="8"/>
+    <cellStyle name="표준 4" xfId="9"/>
+    <cellStyle name="표준 5" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF315F97"/>
+          <bgColor rgb="FF315F97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8393B2"/>
+          <bgColor rgb="FF8393B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color rgb="FF315F97"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF315F97"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border>
+        <top style="thin">
+          <color rgb="FF315F97"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF315F97"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <top style="medium">
+          <color rgb="FF315F97"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF315F97"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB2C9E6"/>
+          <bgColor rgb="FFB2C9E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB2C9E6"/>
+          <bgColor rgb="FFB2C9E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF315F97"/>
+          <bgColor rgb="FF315F97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF315F97"/>
+          <bgColor rgb="FF315F97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF315F97"/>
+          <bgColor rgb="FF315F97"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thick">
+          <color rgb="FFFFFFFF"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF315F97"/>
+          <bgColor rgb="FF315F97"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thick">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8E4F3"/>
+          <bgColor rgb="FFD8E4F3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="3" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="totalRow" dxfId="13"/>
+      <tableStyleElement type="firstColumn" dxfId="12"/>
+      <tableStyleElement type="lastColumn" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
+    </tableStyle>
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="totalRow" dxfId="6"/>
+      <tableStyleElement type="firstColumn" dxfId="5"/>
+      <tableStyleElement type="lastColumn" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
+    </tableStyle>
+    <tableStyle name="MySqlDefault" pivot="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -1449,11 +2219,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J104"/>
+  <dimension ref="B2:P168"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
@@ -1465,7 +2233,7 @@
     <col min="6" max="6" width="36.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" customWidth="1"/>
     <col min="10" max="10" width="3.69921875" customWidth="1"/>
     <col min="11" max="11" width="3.19921875" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
@@ -1477,9 +2245,9 @@
     <col min="20" max="20" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="42" customHeight="1">
+    <row r="2" spans="2:12" ht="42" customHeight="1">
       <c r="B2" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -1489,1241 +2257,1186 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="4" spans="2:9" s="1" customFormat="1" ht="19.2">
-      <c r="B4" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:12" s="1" customFormat="1" ht="19.2">
+      <c r="B5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="2:12" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="13" t="s">
+    </row>
+    <row r="7" spans="2:12" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B7" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" s="3" customFormat="1">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="2:12" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B9" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="D9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="H9" s="13" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B6" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="I9" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" s="3" customFormat="1">
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B8" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="H10" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="3" customFormat="1"/>
+    <row r="12" spans="2:12" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B12" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="E12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="G12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B13" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" s="3" customFormat="1"/>
-    <row r="11" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B11" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="E13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" s="3" customFormat="1"/>
+    <row r="15" spans="2:12" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B15" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B12" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" s="3" customFormat="1"/>
-    <row r="14" spans="2:9" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B14" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="2:9" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="2:9" s="3" customFormat="1" ht="19.2">
-      <c r="B16" s="2"/>
+    <row r="16" spans="2:12" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B16" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:9" s="3" customFormat="1"/>
-    <row r="18" spans="2:9" s="7" customFormat="1" ht="19.2">
-      <c r="B18" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B19" s="13" t="s">
+    <row r="17" spans="2:9" s="3" customFormat="1" ht="19.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="2:9" s="3" customFormat="1"/>
+    <row r="19" spans="2:9" s="7" customFormat="1" ht="19.2">
+      <c r="B19" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B20" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="E20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B21" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" s="3" customFormat="1"/>
+    <row r="23" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B23" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B20" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="I23" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B24" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="10" t="s">
+      <c r="I24" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" s="3" customFormat="1"/>
+    <row r="26" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B26" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B27" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="I20" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" s="3" customFormat="1"/>
-    <row r="22" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B22" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B23" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" s="3" customFormat="1"/>
-    <row r="25" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B25" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B26" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" s="3" customFormat="1" ht="19.2">
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="2:9" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B28" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="E27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" s="3" customFormat="1" ht="19.2">
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:9" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B29" s="10" t="s">
-        <v>118</v>
+      <c r="B29" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="2:9" s="3" customFormat="1" ht="19.2">
+    <row r="30" spans="2:9" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B30" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:9" s="3" customFormat="1"/>
-    <row r="32" spans="2:9" s="7" customFormat="1" ht="19.2">
-      <c r="B32" s="4" t="s">
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="2:9" s="3" customFormat="1" ht="19.2">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="2:9" s="3" customFormat="1"/>
+    <row r="33" spans="2:16" s="7" customFormat="1" ht="19.2">
+      <c r="B33" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" s="9" customFormat="1" ht="19.2">
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="2:16" s="9" customFormat="1" ht="19.2">
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="2:16" s="7" customFormat="1" ht="19.2">
+      <c r="B38" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="2:16" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B39" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B33" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B34" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="10" t="s">
+    </row>
+    <row r="40" spans="2:16" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B40" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" s="9" customFormat="1" ht="19.2">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="2:9" s="9" customFormat="1" ht="19.2">
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="2:9" s="7" customFormat="1" ht="19.2">
-      <c r="B37" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B38" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="F40" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" s="9" customFormat="1" ht="19.2">
+      <c r="B41" s="11"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+    </row>
+    <row r="42" spans="2:16" s="9" customFormat="1" ht="19.2">
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="2:16" s="7" customFormat="1" ht="19.2">
+      <c r="B43" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="2:16" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B44" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B39" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" s="9" customFormat="1" ht="19.2">
-      <c r="B40" s="14"/>
-    </row>
-    <row r="41" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B41" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="13" t="s">
+      <c r="D44" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B45" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B42" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" s="3" customFormat="1" ht="19.2">
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="2:9" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B44" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="2:9" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B45" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="2:9" s="3" customFormat="1">
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="2:9" s="3" customFormat="1">
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="2:9" s="7" customFormat="1" ht="19.2">
+      <c r="E45" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" s="9" customFormat="1" ht="19.2">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="2:16" s="9" customFormat="1" ht="19.2">
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="2:16" s="7" customFormat="1" ht="19.2">
       <c r="B48" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
       <c r="B49" s="12" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F49" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B50" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" s="9" customFormat="1" ht="19.2">
+      <c r="B51" s="14"/>
+    </row>
+    <row r="52" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B52" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="D52" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B50" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" s="9" customFormat="1" ht="19.2">
-      <c r="B51" s="14"/>
-    </row>
-    <row r="52" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B52" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>133</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+    <row r="53" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
       <c r="B53" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" s="3" customFormat="1" ht="19.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" s="3" customFormat="1" ht="19.2">
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="2:10" s="3" customFormat="1" ht="25.95" customHeight="1">
+    <row r="55" spans="2:9" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="B55" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="2:10" s="3" customFormat="1" ht="25.95" customHeight="1">
+    <row r="56" spans="2:9" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="B56" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="2:10" s="3" customFormat="1">
+    <row r="57" spans="2:9" s="3" customFormat="1">
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="2:10" s="3" customFormat="1">
+    <row r="58" spans="2:9" s="3" customFormat="1">
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="2:10" s="3" customFormat="1" ht="19.2">
-      <c r="B59" s="6" t="s">
+    <row r="59" spans="2:9" s="7" customFormat="1" ht="19.2">
+      <c r="B59" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B60" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B61" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" s="9" customFormat="1" ht="19.2">
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B63" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B64" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" s="3" customFormat="1" ht="19.2">
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="2:9" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B66" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="2:9" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B67" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="2:9" s="3" customFormat="1">
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="2:9" s="3" customFormat="1">
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="2:9" s="7" customFormat="1" ht="19.2">
+      <c r="B70" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B71" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B72" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" s="3" customFormat="1">
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B74" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B75" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="2:9" s="3" customFormat="1"/>
+    <row r="77" spans="2:9" s="3" customFormat="1"/>
+    <row r="78" spans="2:9" s="7" customFormat="1" ht="19.2">
+      <c r="B78" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B79" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B80" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" s="3" customFormat="1">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B82" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B83" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="2:10" s="3" customFormat="1"/>
+    <row r="85" spans="2:10" s="3" customFormat="1"/>
+    <row r="86" spans="2:10" s="3" customFormat="1" ht="19.2">
+      <c r="B86" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B87" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B88" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" s="3" customFormat="1"/>
+    <row r="90" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B90" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B91" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="2:10" s="3" customFormat="1"/>
+    <row r="93" spans="2:10" s="3" customFormat="1"/>
+    <row r="94" spans="2:10" s="3" customFormat="1" ht="19.2">
+      <c r="B94" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+    </row>
+    <row r="95" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B95" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F95" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B60" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B61" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" s="3" customFormat="1"/>
-    <row r="63" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B63" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" s="13" t="s">
+      <c r="G95" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B96" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B64" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-    </row>
-    <row r="65" spans="2:10" s="3" customFormat="1"/>
-    <row r="66" spans="2:10" s="3" customFormat="1"/>
-    <row r="67" spans="2:10" s="3" customFormat="1" ht="19.2">
-      <c r="B67" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B68" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B69" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" s="3" customFormat="1"/>
-    <row r="71" spans="2:10" s="3" customFormat="1"/>
-    <row r="72" spans="2:10" s="3" customFormat="1" ht="19.2">
-      <c r="B72" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-    </row>
-    <row r="73" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B73" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B74" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I74" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" s="3" customFormat="1"/>
-    <row r="76" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B76" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B77" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="2:10" s="3" customFormat="1"/>
-    <row r="79" spans="2:10" s="3" customFormat="1"/>
-    <row r="80" spans="2:10" s="3" customFormat="1" ht="19.2">
-      <c r="B80" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-    </row>
-    <row r="81" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B81" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B82" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I82" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" s="3" customFormat="1"/>
-    <row r="84" spans="2:9" s="3" customFormat="1"/>
-    <row r="85" spans="2:9" s="3" customFormat="1" ht="19.2">
-      <c r="B85" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-    </row>
-    <row r="86" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B86" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I86" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B87" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H87" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I87" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" s="3" customFormat="1"/>
-    <row r="89" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B89" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I89" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B90" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I90" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" s="3" customFormat="1"/>
-    <row r="92" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B92" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I92" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B93" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H93" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I93" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" s="3" customFormat="1"/>
-    <row r="95" spans="2:9" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B95" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="B96" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>50</v>
+      <c r="E96" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="2:10" s="3" customFormat="1"/>
-    <row r="98" spans="2:10" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="98" spans="2:10" s="3" customFormat="1"/>
     <row r="99" spans="2:10" s="3" customFormat="1" ht="19.2">
       <c r="B99" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -2735,60 +3448,60 @@
     </row>
     <row r="100" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
       <c r="B101" s="10" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="2:10" s="3" customFormat="1"/>
     <row r="103" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>8</v>
@@ -2805,13 +3518,13 @@
     </row>
     <row r="104" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
       <c r="B104" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -2820,6 +3533,842 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
     </row>
+    <row r="105" spans="2:10" s="3" customFormat="1"/>
+    <row r="106" spans="2:10" s="3" customFormat="1"/>
+    <row r="107" spans="2:10" s="3" customFormat="1" ht="19.2">
+      <c r="B107" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+    </row>
+    <row r="108" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B108" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B109" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I109" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" s="3" customFormat="1"/>
+    <row r="111" spans="2:10" s="3" customFormat="1"/>
+    <row r="112" spans="2:10" s="3" customFormat="1" ht="19.2">
+      <c r="B112" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+    </row>
+    <row r="113" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B113" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B114" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I114" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" s="3" customFormat="1"/>
+    <row r="116" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B116" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I116" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B117" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I117" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" s="3" customFormat="1"/>
+    <row r="119" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B119" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I119" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B120" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" s="3" customFormat="1"/>
+    <row r="122" spans="2:9" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B122" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B123" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" s="3" customFormat="1"/>
+    <row r="125" spans="2:9" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="126" spans="2:9" s="3" customFormat="1" ht="19.2">
+      <c r="B126" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+    </row>
+    <row r="127" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B127" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H127" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I127" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B128" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I128" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" s="3" customFormat="1"/>
+    <row r="130" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B130" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+    </row>
+    <row r="131" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B131" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+    </row>
+    <row r="133" spans="2:10" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="134" spans="2:10" s="3" customFormat="1" ht="19.2">
+      <c r="B134" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+    </row>
+    <row r="135" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B135" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I135" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B136" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H136" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I136" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" s="3" customFormat="1"/>
+    <row r="138" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B138" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+    </row>
+    <row r="139" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B139" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+    </row>
+    <row r="141" spans="2:10" s="3" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="142" spans="2:10" s="7" customFormat="1" ht="19.2">
+      <c r="B142" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B143" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F143" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G143" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H143" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I143" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B144" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" s="3" customFormat="1">
+      <c r="B145" s="5"/>
+    </row>
+    <row r="146" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B146" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I146" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B147" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H147" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I147" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" s="3" customFormat="1"/>
+    <row r="149" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B149" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F149" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G149" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H149" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="I149" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B150" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H150" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I150" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" s="3" customFormat="1"/>
+    <row r="152" spans="2:9" s="3" customFormat="1" ht="19.2">
+      <c r="B152" s="2"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+    </row>
+    <row r="153" spans="2:9" s="7" customFormat="1" ht="19.2">
+      <c r="B153" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B154" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D154" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G154" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H154" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I154" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B155" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H155" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I155" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" s="3" customFormat="1">
+      <c r="B156" s="5"/>
+    </row>
+    <row r="157" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B157" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E157" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F157" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G157" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H157" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B158" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H158" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" s="3" customFormat="1"/>
+    <row r="160" spans="2:9" s="3" customFormat="1"/>
+    <row r="161" spans="2:9" s="7" customFormat="1" ht="19.2">
+      <c r="B161" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B162" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F162" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="G162" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H162" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="I162" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" s="8" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B163" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H163" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I163" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" s="3" customFormat="1"/>
+    <row r="165" spans="2:9" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B165" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+    </row>
+    <row r="166" spans="2:9" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="B166" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+    </row>
+    <row r="167" spans="2:9" s="3" customFormat="1" ht="19.2">
+      <c r="B167" s="2"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+    </row>
+    <row r="168" spans="2:9" s="3" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
@@ -2828,7 +4377,7 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="31" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="105" max="9" man="1"/>
+    <brk id="111" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>